--- a/SKUD_Python/data/reports/attendance_report_2025_07_July.xlsx
+++ b/SKUD_Python/data/reports/attendance_report_2025_07_July.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>Сотрудник</t>
   </si>
@@ -29,12 +29,30 @@
     <t>Средняя продолжительность дня</t>
   </si>
   <si>
+    <t>Карта МИР 0514</t>
+  </si>
+  <si>
+    <t>Карта МИР 4635</t>
+  </si>
+  <si>
+    <t>Палкин Семён</t>
+  </si>
+  <si>
     <t>Поляков</t>
   </si>
   <si>
+    <t>Поляков Дмитрий</t>
+  </si>
+  <si>
+    <t>Пущинский Марк</t>
+  </si>
+  <si>
     <t>Тарасов</t>
   </si>
   <si>
+    <t>Тарасов Никита</t>
+  </si>
+  <si>
     <t>Шура</t>
   </si>
   <si>
@@ -53,22 +71,244 @@
     <t>Выходной</t>
   </si>
   <si>
-    <t>02:50</t>
-  </si>
-  <si>
-    <t>02:51</t>
-  </si>
-  <si>
-    <t>03:10</t>
-  </si>
-  <si>
-    <t>03:51</t>
-  </si>
-  <si>
-    <t>03:09</t>
-  </si>
-  <si>
-    <t>03:13</t>
+    <t>09:39</t>
+  </si>
+  <si>
+    <t>09:42</t>
+  </si>
+  <si>
+    <t>17:11</t>
+  </si>
+  <si>
+    <t>09:18</t>
+  </si>
+  <si>
+    <t>09:19</t>
+  </si>
+  <si>
+    <t>09:37</t>
+  </si>
+  <si>
+    <t>07:55</t>
+  </si>
+  <si>
+    <t>09:12</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>08:09</t>
+  </si>
+  <si>
+    <t>16:38</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
+    <t>09:02</t>
+  </si>
+  <si>
+    <t>09:57</t>
+  </si>
+  <si>
+    <t>09:34</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>09:49</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>09:38</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>07:31</t>
+  </si>
+  <si>
+    <t>08:17</t>
+  </si>
+  <si>
+    <t>07:29</t>
+  </si>
+  <si>
+    <t>08:16</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>14:51</t>
+  </si>
+  <si>
+    <t>08:52</t>
+  </si>
+  <si>
+    <t>08:58</t>
+  </si>
+  <si>
+    <t>08:59</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t>08:57</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>15:46</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>17:14</t>
+  </si>
+  <si>
+    <t>17:23</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>13:34</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>18:34</t>
+  </si>
+  <si>
+    <t>13:28</t>
+  </si>
+  <si>
+    <t>16:39</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>19:16</t>
+  </si>
+  <si>
+    <t>17:17</t>
+  </si>
+  <si>
+    <t>16:21</t>
+  </si>
+  <si>
+    <t>17:13</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>16:51</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>15:26</t>
+  </si>
+  <si>
+    <t>16:05</t>
+  </si>
+  <si>
+    <t>17:09</t>
+  </si>
+  <si>
+    <t>17:04</t>
+  </si>
+  <si>
+    <t>17:07</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>15:07</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>17:56</t>
+  </si>
+  <si>
+    <t>18:06</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>19:34</t>
+  </si>
+  <si>
+    <t>14:52</t>
+  </si>
+  <si>
+    <t>17:02</t>
+  </si>
+  <si>
+    <t>16:52</t>
+  </si>
+  <si>
+    <t>15:34</t>
+  </si>
+  <si>
+    <t>15:44</t>
+  </si>
+  <si>
+    <t>15:47</t>
   </si>
 </sst>
 </file>
@@ -145,8 +385,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.02</v>
+        <v>8.07</v>
       </c>
       <c r="D2">
-        <v>1.02</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -483,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -497,10 +737,94 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>12.13</v>
+      </c>
+      <c r="D6">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5.38</v>
+      </c>
+      <c r="D7">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>14.92</v>
+      </c>
+      <c r="D8">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>114.9</v>
+      </c>
+      <c r="D9">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>104.62</v>
+      </c>
+      <c r="D10">
+        <v>7.47</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,82 +842,940 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>5.6</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>1.43</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>7.53</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>7.88</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>8.07</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>7.38</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>3.95</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>1.85</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1">
+      <c r="A15" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="3">
-        <v>45844</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7.73</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1">
+      <c r="A16" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="F2" s="2" t="b">
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="F16" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="3">
-        <v>45844</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="17" spans="1:6" s="3" customFormat="1">
+      <c r="A17" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>3.08</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <v>10.23</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>7.33</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>6.78</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>6.08</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <v>8.1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>6.98</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>6.92</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>6.45</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1">
+      <c r="A29" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="F29" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1">
+      <c r="A30" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31">
+        <v>7.68</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32">
+        <v>7.4</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>8.92</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35">
+        <v>7.63</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>9.93</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>9.82</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40">
+        <v>11.22</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
-      <c r="A4" s="3">
-        <v>45844</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>0.02</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <v>8.17</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>7.78</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44">
+        <v>8.02</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45">
+        <v>7.87</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <v>5.52</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48">
+        <v>6.57</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49">
+        <v>0.02</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
